--- a/kmedoids/result.xlsx
+++ b/kmedoids/result.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Efektivitas Penerapan Project Based Learning Melalui Pembuatan Konten Video Terhadap Minat dan Hasil Belajar Peserta Didik pada Mata Pelajaran Desain Grafis Percetakan di SMK Negeri 6 Surakarta</t>
+          <t>Perbandingan Pembelajaran Kooperatif Tipe Nht (Numbered Heads Together) dengan Pembelajaran Konvensional terhadap Hasil Belajar di Tinjau dari Minat Peserta Didik Kelas X</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analisis Kreatifitas Siswa pada Pembelajaran Desain Grafis Percetakan Selama Pembelajaran Online di Era Pandemi Covid 19</t>
+          <t>Integrasi STEAM (Science, Technology, Engineering, Art, Mathematics) dengan Kompetensi Dasar Mata Pelajaran Desain Grafis Menggunakan Pendekatan Konstruktivisme pada Siswa SMK</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Integrasi STEAM (Science, Technology, Engineering, Art, Mathematics) dengan Kompetensi Dasar Mata Pelajaran Desain Grafis Menggunakan Pendekatan Konstruktivisme pada Siswa SMK</t>
+          <t>Efektifitas Game Based Learning dengan aplikasi Kahoot ditinjau dari minat belajar dan hasil belajar peserta didik pada mata pelajaran simulasi digital di SMK Negeri 3 Surakarta</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PEMBUATAN MEDIA PEMBELAJARAN MENGGUNAKAN SCRATCH UNTUK MENINGKATKAN MINAT BELAJAR SISWA PADA MATERI PEMBUATAN PRODUK MULTIMEDIA INTERAKTIF KELAS XII MULTIMEDIA DI SMK NEGERI 1 DEMAK</t>
+          <t>Analisis Kreatifitas Siswa pada Pembelajaran Desain Grafis Percetakan Selama Pembelajaran Online di Era Pandemi Covid 19</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Perbandingan Pembelajaran Kooperatif Tipe Nht (Numbered Heads Together) dengan Pembelajaran Konvensional terhadap Hasil Belajar di Tinjau dari Minat Peserta Didik Kelas X</t>
+          <t>Pembuatan Sistem Informasi Layanan Laboratorium Komputer Berbasis Web ada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pembuatan Sistem Informasi Layanan Laboratorium Komputer Berbasis Web ada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
+          <t>Eksperimentasi Discovery Learning dan Project Based Learning Kombinasi College Ball ditinjau dari Minat pada Materi Kontrol Percabangan Kelas X SMK Negeri 6 Surakarta Tahun Ajaran 2015/2016</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Efektifitas Game Based Learning dengan aplikasi Kahoot ditinjau dari minat belajar dan hasil belajar peserta didik pada mata pelajaran simulasi digital di SMK Negeri 3 Surakarta</t>
+          <t>Pengaruh Minat Belajar dan Fasilitas Laboratorium Komputer terhadap Prestasi Belajar Mata Pelajaran Melakukan Instalasi Lan di SMK Negeri 1 Sawit</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Prezi  untuk Meningkatkan Minat dan Hasil Belajar Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital di SMK Negeri 5 Surakarta</t>
+          <t>Pengaruh Computer Literacy  dan  Intensitas  Penggunaan  Website Sebagai  Media  Informasi   Terhadap  Minat  Mencari  Kerja  pada  Siswa  Kelas XII di Sekolah Menengah Kejuruan Kabupaten Wonogiri  Tahun Pelajaran 2015/2016</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eksperimentasi Discovery Learning dan Project Based Learning Kombinasi College Ball ditinjau dari Minat pada Materi Kontrol Percabangan Kelas X SMK Negeri 6 Surakarta Tahun Ajaran 2015/2016</t>
+          <t>Efektivitas Penggunaan Media Prezi  untuk Meningkatkan Minat dan Hasil Belajar Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital di SMK Negeri 5 Surakarta</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pengaruh Computer Literacy  dan  Intensitas  Penggunaan  Website Sebagai  Media  Informasi   Terhadap  Minat  Mencari  Kerja  pada  Siswa  Kelas XII di Sekolah Menengah Kejuruan Kabupaten Wonogiri  Tahun Pelajaran 2015/2016</t>
+          <t>Efektivitas Penerapan Project Based Learning Melalui Pembuatan Konten Video Terhadap Minat dan Hasil Belajar Peserta Didik pada Mata Pelajaran Desain Grafis Percetakan di SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pengaruh Minat Belajar dan Fasilitas Laboratorium Komputer terhadap Prestasi Belajar Mata Pelajaran Melakukan Instalasi Lan di SMK Negeri 1 Sawit</t>
+          <t>PEMBUATAN MEDIA PEMBELAJARAN MENGGUNAKAN SCRATCH UNTUK MENINGKATKAN MINAT BELAJAR SISWA PADA MATERI PEMBUATAN PRODUK MULTIMEDIA INTERAKTIF KELAS XII MULTIMEDIA DI SMK NEGERI 1 DEMAK</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Evaluasi program praktik industri  mahasiswa pendidikan teknik informatika dan komputer FKIP UNS menggunakan model cipp</t>
+          <t>Pengembangan Media Pembelajaran Interaktif Berbasis Flash Dalam Mata Pelajaran Sistem Komputer Pada Siswa Kelas X Smk Negeri 1 Sawit</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pengembangan aplikasi letshoot berbasis android sebagai media pembelajaran Troubleshooting jaringan</t>
+          <t xml:space="preserve">Pengembangan media pembelajaran keamanan jaringan berbasis android    </t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pengembangan sistem informasi tata tertib sekolah terintegrasi sms gateway di SMK Negeri 5 Surakarta</t>
+          <t>Pengembangan aplikasi letshoot berbasis android sebagai media pembelajaran Troubleshooting jaringan</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DESAIN DAN IMPLEMENTASI SMART LABORATORY BERBASIS ARDUINO UNTUK OTOMASI GEDUNG</t>
+          <t>Pengembangan sistem informasi tata tertib sekolah terintegrasi sms gateway di SMK Negeri 5 Surakarta</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Inventaris Barang dan Ruang Berbasis Web pada Eks Jurusan Pendidikan Teknik dan Kejuruan FKIP UNS</t>
+          <t>DESAIN DAN IMPLEMENTASI SMART LABORATORY BERBASIS ARDUINO UNTUK OTOMASI GEDUNG</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan Aplikasi  Media Pembelajaran Interaktif dengan Konsep Mind Map  pada Mata Pelajaran Teknik Pengolahan Video  Kelas XII Multimedia SMK Negeri 3 Surakarta    </t>
+          <t>Evaluasi program praktik industri  mahasiswa pendidikan teknik informatika dan komputer FKIP UNS menggunakan model cipp</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Profil kemampuan berpikir kreatif mahasiswa dalam menyelesaikan permasalahan pada materi pembelajaran pemrograman komputer dasar</t>
+          <t>ANALISIS PENCAPAIAN KETERAMPILAN ABAD 21 MENGGUNAKAN  PEMBELAJARAN CONTRUCTIVIST DENGAN TEKNOLOGI KENDARAAN TANPA PENGEMUDI (DRIVERLESS VEHICLE) BERBASIS  ARDUINO</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANALISIS PENCAPAIAN KETERAMPILAN ABAD 21 MENGGUNAKAN  PEMBELAJARAN CONTRUCTIVIST DENGAN TEKNOLOGI KENDARAAN TANPA PENGEMUDI (DRIVERLESS VEHICLE) BERBASIS  ARDUINO</t>
+          <t xml:space="preserve">Pengembangan Aplikasi  Media Pembelajaran Interaktif dengan Konsep Mind Map  pada Mata Pelajaran Teknik Pengolahan Video  Kelas XII Multimedia SMK Negeri 3 Surakarta    </t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMPLEMENTASI LABORATORIUM KOMPUTER SEKOLAH  MENGGUNAKAN RASPBERRY PI DENGAN SISTEM PENYIMPANAN DISKLESS DAN PERANGKAT LUNAK OPEN SOURCE </t>
+          <t>Profil kemampuan berpikir kreatif mahasiswa dalam menyelesaikan permasalahan pada materi pembelajaran pemrograman komputer dasar</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mengukur Efektivitas Game Cisco Aspire Dalam Meningkatkan Pemahaman Dan Kemampuan  Psikomotorik Mahasiswa Dalam Mata Kuliah Komunikasi Data Dan Jaringan 1 </t>
+          <t xml:space="preserve">IMPLEMENTASI LABORATORIUM KOMPUTER SEKOLAH  MENGGUNAKAN RASPBERRY PI DENGAN SISTEM PENYIMPANAN DISKLESS DAN PERANGKAT LUNAK OPEN SOURCE </t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Analisis Perbandingan Metode Pembelajaran dengan Pemanfaatan Video Tutorial dan Tutor Sebaya terhadap Hasil Belajar Kognitif Peserta Didik pada Mata Pelajaran Teknik Animasi 2 Dimensi Kelas XI di SMK Negeri 6 Surakarta</t>
+          <t xml:space="preserve">Mengukur Efektivitas Game Cisco Aspire Dalam Meningkatkan Pemahaman Dan Kemampuan  Psikomotorik Mahasiswa Dalam Mata Kuliah Komunikasi Data Dan Jaringan 1 </t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan Media Pembelajaran Game Perakitan Komputer (Gapeko) Berbasis Android pada Mata Pelajaran Perakitan Komputer untuk Peserta Didik TKJ SMK Negeri 1 Sukoharjo </t>
+          <t>Perbandingan Model Pembelajaran Tgt (Teams Games Tournament) dengan Nht (Numbered Head Together) untuk Meningkatkan Hasil Belajar Kognitif Siswa pada Mata Pelajaran Sistem Operasi di SMK N 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Perbandingan Model Pembelajaran Tgt (Teams Games Tournament) dengan Nht (Numbered Head Together) untuk Meningkatkan Hasil Belajar Kognitif Siswa pada Mata Pelajaran Sistem Operasi di SMK N 6 Surakarta</t>
+          <t>Pengembangan Aplikasi Reward System Berbasis Android sebagai Pendukung Penilaian Keaktifan Siswa dalam Pembelajaran</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Interaktif Berbasis Flash Dalam Mata Pelajaran Sistem Komputer Pada Siswa Kelas X Smk Negeri 1 Sawit</t>
+          <t>Pengembangan Sistem Informasi Inventaris Barang dan Ruang Berbasis Web pada Eks Jurusan Pendidikan Teknik dan Kejuruan FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan media pembelajaran keamanan jaringan berbasis android    </t>
+          <t>Pembuatan sistem informasi evaluasi perkuliahan dosen &amp; pelayanan program studi berbasis WEB di Program Studi Pendidikan Teknik Informatika dan Komputer Universitas Sebelas Maret</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pembuatan sistem informasi evaluasi perkuliahan dosen &amp; pelayanan program studi berbasis WEB di Program Studi Pendidikan Teknik Informatika dan Komputer Universitas Sebelas Maret</t>
+          <t>Implementasi pc cluster  (render farm) untuk rendering animasi 3d blender  di lab komputer kampus V UNS</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Technology Acceptance Model (TAM) untuk menganalisis pengaruh implementasi E-Learning  terhadap motivasi belajar siswa </t>
+          <t>Pengembangan Aplikasi Reward System Berbasis Android sebagai Pendukung Penilaian Keaktifan Siswa dalam Pembelajaran</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Efektifitas Penggunaan Model Pembelajaran Blended Learning Berbasis Video Tutorial Ditinjau dari Pemahaman Siswa pada Mata Pelajaran Dasar Desain Grafis di SMK Negeri 1 Banyudono</t>
+          <t>Analisis Perbandingan Metode Pembelajaran dengan Pemanfaatan Video Tutorial dan Tutor Sebaya terhadap Hasil Belajar Kognitif Peserta Didik pada Mata Pelajaran Teknik Animasi 2 Dimensi Kelas XI di SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Analisis Pola Perilaku Siswa Pendidikan Kejuruan dalam Pembelajaran STEM Menggunakan Robotika Lego Mindstorm Ditinjau dari Gaya Belajar KOLB</t>
+          <t>Pengembangan Sistem Informasi Pemantauan Tugas Akhir Berbasis Web pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Monitoring KPI (Key Performance Indicator) Berbasis WEB untuk FKIP UNS</t>
+          <t>Pengaruh Penggunaan Smartphone dan Intensitas Bermain Game Terhadap Hasil Belajar Kognitif   Siswa Kelas X SMK Negeri 1 Sukoharjo</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Evaluasi Pencapaian Kemampuan Computational Thinking terhadap Calon Guru Sekolah Dasar pada Pembelajaran Steam Menggunakan Robotika</t>
+          <t>Efektivitas Penggunaan Media Pembelajaran Kelas Maya Edmodo untuk Meningkatkan Motivasi dan Hasil Belajar Peserta Didik pada Mata Pelajaran Simulasi Digital di SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pengembangan cerita interaktif dan game edukasi sejarah kerajaan di Indonesia sebagai media pembelajaran berbasis android</t>
+          <t>Pengaruh Penggunaan Media Sosial terhadap Kepribadian dan Kedisiplinan Belajar Siswa Kelas XII Multimedia SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Efektivitas  penggunaan  media “Bangun Datar dan Bangun Ruang” untuk meningkatkan prestasi dan sikap belajar siswa mata pelajaran Matematika SD Negeri Kartasua 01</t>
+          <t>Efektifitas Penggunaan Model Pembelajaran Blended Learning Berbasis Video Tutorial Ditinjau dari Pemahaman Siswa pada Mata Pelajaran Dasar Desain Grafis di SMK Negeri 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pembuatan sistem pendukung pengambilan keputusan kelayakan tempat praktik kerja industri dengan metode simple additive weighting di SMK N 2 Surakarta</t>
+          <t>Analisis Pola Perilaku Siswa Pendidikan Kejuruan dalam Pembelajaran STEM Menggunakan Robotika Lego Mindstorm Ditinjau dari Gaya Belajar KOLB</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Pembelajaran Kelas Maya Edmodo untuk Meningkatkan Motivasi dan Hasil Belajar Peserta Didik pada Mata Pelajaran Simulasi Digital di SMK Negeri 6 Surakarta</t>
+          <t>Pengembangan Aplikasi Monitoring KPI (Key Performance Indicator) Berbasis WEB untuk FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Smartphone dan Intensitas Bermain Game Terhadap Hasil Belajar Kognitif   Siswa Kelas X SMK Negeri 1 Sukoharjo</t>
+          <t>Evaluasi Pencapaian Kemampuan Computational Thinking terhadap Calon Guru Sekolah Dasar pada Pembelajaran Steam Menggunakan Robotika</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Analisis keterbacaan source code perangkat lunak: studi kasus pada Program Studi Pendidikan Teknik Informatika Dan Komputer  Universitas Sebelas Maret   </t>
+          <t>Pengembangan media pembelajaran berbasis Augmented Reality pada mata kuliah animasi 3d program studi pendidikan teknik informatika dan komputer  Universitas Sebelas Maret</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengaruh penggunaan smartphone dan kecanduan bermain game online terhadap indeks prestasi kumulatif mahasiswa PTIK FKIP UNS </t>
+          <t xml:space="preserve">Technology Acceptance Model (TAM) untuk menganalisis pengaruh implementasi E-Learning  terhadap motivasi belajar siswa </t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Upaya meningkatkan hasil belajar dan keaktifan siswa dengan model pembelajaran discovery learning disertai brainstorming dalam mata pelajaran jaringan dasar kelas X TKJ 1 DI SMK Negeri 1 Banyudono </t>
+          <t>Pengembangan cerita interaktif dan game edukasi sejarah kerajaan di Indonesia sebagai media pembelajaran berbasis android</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan media pembelajaran berbasis android pada mata pelajaran administrasi infrastruktur jaringan materi routing statis   </t>
+          <t>Pembuatan sistem pendukung pengambilan keputusan kelayakan tempat praktik kerja industri dengan metode simple additive weighting di SMK N 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Evaluasi Media Pembelajaran Context-Aware Smart Green Building dalam Memfasilitasi Pembelajaran  Teknologi Smart Home</t>
+          <t xml:space="preserve">Analisis keterbacaan source code perangkat lunak: studi kasus pada Program Studi Pendidikan Teknik Informatika Dan Komputer  Universitas Sebelas Maret   </t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pengaruh prestasi mata pelajaran paket keahlian (C3), motivasi belajar dan bimbingan industri terhadap capaian prestasi praktik kerja industri siswa multimedia SMK Negeri 3 Surakarta</t>
+          <t xml:space="preserve">Pengaruh penggunaan smartphone dan kecanduan bermain game online terhadap indeks prestasi kumulatif mahasiswa PTIK FKIP UNS </t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pembuatan sistem informasi nilai siswa kurikulum KTSP  sebagai media pemantauan orang tua terhadap prestasi belajar siswa di SMK Negeri 1 Sukoharjo</t>
+          <t xml:space="preserve">Upaya meningkatkan hasil belajar dan keaktifan siswa dengan model pembelajaran discovery learning disertai brainstorming dalam mata pelajaran jaringan dasar kelas X TKJ 1 DI SMK Negeri 1 Banyudono </t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rancang bangun trainer jaringan dasar sebagai media pembelajaran pada mata kuliah komunikasi data dan jaringan komputer 1 PTIK FKIP UNS</t>
+          <t xml:space="preserve">Pengembangan media pembelajaran berbasis android pada mata pelajaran administrasi infrastruktur jaringan materi routing statis   </t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Reward System Berbasis Android sebagai Pendukung Penilaian Keaktifan Siswa dalam Pembelajaran</t>
+          <t>Evaluasi Media Pembelajaran Context-Aware Smart Green Building dalam Memfasilitasi Pembelajaran  Teknologi Smart Home</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Penerapan model pembelajaran kumon dengan strategi active learning untuk meningkatkan hasil belajar siswa kelas X axioo SMK Negeri 5 Surakarta pada mata pelajaran simulasi dan komunikasi digital</t>
+          <t>Pengaruh prestasi mata pelajaran paket keahlian (C3), motivasi belajar dan bimbingan industri terhadap capaian prestasi praktik kerja industri siswa multimedia SMK Negeri 3 Surakarta</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Pemantauan Tugas Akhir Berbasis Web pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
+          <t>Pembuatan sistem informasi nilai siswa kurikulum KTSP  sebagai media pemantauan orang tua terhadap prestasi belajar siswa di SMK Negeri 1 Sukoharjo</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Implementasi pc cluster  (render farm) untuk rendering animasi 3d blender  di lab komputer kampus V UNS</t>
+          <t>Rancang bangun trainer jaringan dasar sebagai media pembelajaran pada mata kuliah komunikasi data dan jaringan komputer 1 PTIK FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Media Sosial terhadap Kepribadian dan Kedisiplinan Belajar Siswa Kelas XII Multimedia SMK Negeri 6 Surakarta</t>
+          <t>Penerapan model pembelajaran kumon dengan strategi active learning untuk meningkatkan hasil belajar siswa kelas X axioo SMK Negeri 5 Surakarta pada mata pelajaran simulasi dan komunikasi digital</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Reward System Berbasis Android sebagai Pendukung Penilaian Keaktifan Siswa dalam Pembelajaran</t>
+          <t>Efektivitas  penggunaan  media “Bangun Datar dan Bangun Ruang” untuk meningkatkan prestasi dan sikap belajar siswa mata pelajaran Matematika SD Negeri Kartasua 01</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Analisis kesiapan pembelajaran pemrograman pada siswa Madrasah Tsanawiyah Negeri Surakarta 1 berdasarkan kemampuan berpikir komputasi</t>
+          <t>Pengembangan Aplikasi Media Pembelajaran untuk Pembelajaran Bahasa Isyarat Berbasis Android</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pengaruh penerapan model pembelajaran cooperative learning tipe teams games tournament (TGT) berbantuan aplikasi quizizz terhadap hasil belajar ditinjau dari motivasi belajar pada mata pelajaran simulasi digital</t>
+          <t xml:space="preserve"> Pengembangan sistem informasi manajemen kegiatan pembelajaran berbasis web untuk sekolah haji dan umroh  Baitullah Rubaiyat</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Penerapan Model Pembelajaran Sq6r  Untuk Meningkatkan Pemahaman Algoritma Pada Mata Pelajaran Pemrograman Dasar Di Kelas X Tkj 1 Smk Negeri 1 Sawit Boyolali</t>
+          <t>Analisis kesiapan pembelajaran pemrograman pada siswa Madrasah Tsanawiyah Negeri Surakarta 1 berdasarkan kemampuan berpikir komputasi</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Interaktif “Scaffolding” pada Kompetensi Dasar Batu Beton Kelas X Teknik Bangunan di SMKN 5 Surakarta</t>
+          <t>Penerapan Model Pembelajaran Sq6r  Untuk Meningkatkan Pemahaman Algoritma Pada Mata Pelajaran Pemrograman Dasar Di Kelas X Tkj 1 Smk Negeri 1 Sawit Boyolali</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pengaruh persepsi siswa mengenai kompetensi guru terhadap prestasi belajar siswa pada mata pelajaran sistem komputer di smk negeri 1 Banyudono</t>
+          <t>Analisis Pelaksanaan Pembelajaran Menggunakan Robomind Melalui Pendekatan Problem-Based Learning pada Mata Kuliah Pemrograman Dasar di PTIK UNS</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efektivitas penggunaan media software robomind pada pembelajaran pemrograman dasar terhadap peningkatan kemampuan kognitif siswa kelas x paket keahlian multimedia di smk negeri 7 Surakarta </t>
+          <t>Pengembangan Media Pembelajaran Interaktif “Scaffolding” pada Kompetensi Dasar Batu Beton Kelas X Teknik Bangunan di SMKN 5 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perbedaan Penggunaan E-Learning Berbantuan Edmodo Dengan Pembelajaran Konvensional Terhadap Hasil Belajar Pada Mata Pelajaran Simulasi Digital Bagi Siswa Kelas X SMK </t>
+          <t>Pengaruh persepsi siswa mengenai kompetensi guru terhadap prestasi belajar siswa pada mata pelajaran sistem komputer di smk negeri 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penerapan Model Pembelajaran NHT Dan GQGA Untuk Meningkatkan Keaktifan Dan Hasil Belajar Kognitif Pada Materi Perbaikan Periferal Siswa Kelas X TKJ SMK Muhammadiyah 2 Ngawi  </t>
+          <t xml:space="preserve">Efektivitas penggunaan media software robomind pada pembelajaran pemrograman dasar terhadap peningkatan kemampuan kognitif siswa kelas x paket keahlian multimedia di smk negeri 7 Surakarta </t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Perbandingan Efektivitas Antara Model Snowball Throwing Dengan Numbered Head Together Terhadap Prestasi Belajar Pemodelan Perangkat Lunak Pada Siswa Kelas XI SMK Negeri 2 Karanganyar Tahun Ajaran 2015/2016</t>
+          <t xml:space="preserve">Perbedaan Penggunaan E-Learning Berbantuan Edmodo Dengan Pembelajaran Konvensional Terhadap Hasil Belajar Pada Mata Pelajaran Simulasi Digital Bagi Siswa Kelas X SMK </t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Berbasis Android, “English for Disability” pada Materi Grammar &amp; Speaking English Untuk Siswa Kelas VII Tunanetra SMPLB YKAB Surakarta</t>
+          <t xml:space="preserve">Penerapan Model Pembelajaran NHT Dan GQGA Untuk Meningkatkan Keaktifan Dan Hasil Belajar Kognitif Pada Materi Perbaikan Periferal Siswa Kelas X TKJ SMK Muhammadiyah 2 Ngawi  </t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Interaktif pada Mata Kuliah Teknik Animasi 3 Dimensi di PTIK UNS dengan Menggunakan Java Netbeans</t>
+          <t>Perbandingan Efektivitas Antara Model Snowball Throwing Dengan Numbered Head Together Terhadap Prestasi Belajar Pemodelan Perangkat Lunak Pada Siswa Kelas XI SMK Negeri 2 Karanganyar Tahun Ajaran 2015/2016</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan job sheet interaktif menggunakan aplikasi berbasis   komputer pada materi perawatan pc di kelas x tkj  smk negeri 1 Sawit </t>
+          <t>Pengembangan Media Pembelajaran Berbasis Android, “English for Disability” pada Materi Grammar &amp; Speaking English Untuk Siswa Kelas VII Tunanetra SMPLB YKAB Surakarta</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Media Sosial Dan Intensitas Bermain Online Game Terhadap Hasil Belajar Mata Kuliah Peminatan Mahasiswa Ptik FKIP UNS</t>
+          <t>Pengembangan Media Pembelajaran Interaktif pada Mata Kuliah Teknik Animasi 3 Dimensi di PTIK UNS dengan Menggunakan Java Netbeans</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Akademik Berbasis Web Sebagai Sistem Pengolahan Nilai Siswa di SMK Negeri 1 Kudus</t>
+          <t xml:space="preserve">Pengembangan job sheet interaktif menggunakan aplikasi berbasis   komputer pada materi perawatan pc di kelas x tkj  smk negeri 1 Sawit </t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Video Tutorial pada Mata Pelajaran Sistem Operasi Kelas X Multimedia SMK Negeri 6 Surakarta Tahun Ajaran 2015/2016</t>
+          <t>Pengembangan Sistem Informasi Akademik Berbasis Web Sebagai Sistem Pengolahan Nilai Siswa di SMK Negeri 1 Kudus</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pembuatan Media Pembelajaran Interaktif Berbasis Web dengan Menggunakan Html5 pada Materi Subnetting Kelas X Tkj Smk Taruna Kradenan</t>
+          <t>Pembuatan Aplikasi Web Berbasis SMS Sebagai Media Penyalur Informasi dan Komunikasi Antara Sekolah dengan Orang Tua Siswa</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Upaya Peningkatan Kompetensi Diagnosis Jaringan  Melalui Pendekatan Contextual Teaching and Learning (Ctl) dengan Metode Simulasi Menggunakan Software Packet Tracer pada Siswa Kelas XI di SMK N 1 Sawit</t>
+          <t>Pengembangan Media Pembelajaran Video Tutorial pada Mata Pelajaran Sistem Operasi Kelas X Multimedia SMK Negeri 6 Surakarta Tahun Ajaran 2015/2016</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Upaya peningkatan pemahaman konsep dasar algoritma pemrograman menggunakan aplikasi robomind melalui model problem based learning pada mata pelajaran pemrograman dasar siswa kelas x tkj 1 smk n 1 Banyudono</t>
+          <t>Pembuatan Media Pembelajaran Interaktif Berbasis Web dengan Menggunakan Html5 pada Materi Subnetting Kelas X Tkj Smk Taruna Kradenan</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perbandingan antara model pembelajaran flipped classroom berbantuan edmodo dengan pembelajaran konvensional terhadap hasil belajar sistem operasi  (eksperimen kelas x smk 1 Banyudono) </t>
+          <t>Upaya Peningkatan Kompetensi Diagnosis Jaringan  Melalui Pendekatan Contextual Teaching and Learning (Ctl) dengan Metode Simulasi Menggunakan Software Packet Tracer pada Siswa Kelas XI di SMK N 1 Sawit</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Penerapan Model Pembelajaran Kooperatif Tipe STAD untuk Meningkatkan Hasil Belajar Peserta Didik   pada Mata Pelajaran Pemrograman Web  Kelas X RPL A di SMKN 2 Karanganyar</t>
+          <t>Upaya peningkatan pemahaman konsep dasar algoritma pemrograman menggunakan aplikasi robomind melalui model problem based learning pada mata pelajaran pemrograman dasar siswa kelas x tkj 1 smk n 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rancang Bangun Aplikasi Pembuatan Laporan Praktikum  Berbasis Web pada SMK</t>
+          <t xml:space="preserve">Perbandingan antara model pembelajaran flipped classroom berbantuan edmodo dengan pembelajaran konvensional terhadap hasil belajar sistem operasi  (eksperimen kelas x smk 1 Banyudono) </t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pengembangan Modul Interaktif Berbasis Adobe Flash pada Kompetensi Dasar Pengolah Simulasi Visual  Tahap Pasca Produksi Kelas X Akuntansi 3                           SMK Negeri 6 Surakarta</t>
+          <t>Penerapan Model Pembelajaran Kooperatif Tipe STAD untuk Meningkatkan Hasil Belajar Peserta Didik   pada Mata Pelajaran Pemrograman Web  Kelas X RPL A di SMKN 2 Karanganyar</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan E-Learning Berbasis Schoology dengan Menggunakan Model Discovery Learning Terhadap Prestasi Belajar Siswa pada Mata Pelajaran Sistem Komputer Kelas X Multimedia SMK Negeri 6 Surakarta pada Tahun Pelajaran 2015/2016</t>
+          <t>Rancang Bangun Aplikasi Pembuatan Laporan Praktikum  Berbasis Web pada SMK</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Penerapan Simulator Cisco Packet Tracer dengan Model Pembelajaran Teams Games Tournament  untuk Meningkatkan Hasil Belajar dan Keaktifan Jaringan Dasar Kelas X TKJ  SMK Negeri 1 Banyudono</t>
+          <t>Pengembangan Modul Interaktif Berbasis Adobe Flash pada Kompetensi Dasar Pengolah Simulasi Visual  Tahap Pasca Produksi Kelas X Akuntansi 3                           SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pembuatan Aplikasi Web Berbasis SMS Sebagai Media Penyalur Informasi dan Komunikasi Antara Sekolah dengan Orang Tua Siswa</t>
+          <t>Efektivitas Penggunaan E-Learning Berbasis Schoology dengan Menggunakan Model Discovery Learning Terhadap Prestasi Belajar Siswa pada Mata Pelajaran Sistem Komputer Kelas X Multimedia SMK Negeri 6 Surakarta pada Tahun Pelajaran 2015/2016</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Perbandingan  Penggunaan Aplikasi Blender dengan Aplikasi 3DS Max Terhadap Pemahaman Siswa Pada Mata Pelajaran Animasi 3 Dimensi di SMK Batik 2 Surakarta</t>
+          <t>Penerapan Simulator Cisco Packet Tracer dengan Model Pembelajaran Teams Games Tournament  untuk Meningkatkan Hasil Belajar dan Keaktifan Jaringan Dasar Kelas X TKJ  SMK Negeri 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pengaruh Program Praktik Kerja Industri (Prakerin) terhadap Kesiapan Siswa Memasuki Dunia Kerja Studi Kasus di SMK Negeri 1 Banyudono</t>
+          <t>Pengaruh Penggunaan Media Sosial Dan Intensitas Bermain Online Game Terhadap Hasil Belajar Mata Kuliah Peminatan Mahasiswa Ptik FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Augmented Reality untuk Mata Kuliah Robotika di Program Studi Pendidikan Teknik Informatika dan Komputer  Universitas Sebelas Maret</t>
+          <t>Pengaruh penerapan model pembelajaran cooperative learning tipe teams games tournament (TGT) berbantuan aplikasi quizizz terhadap hasil belajar ditinjau dari motivasi belajar pada mata pelajaran simulasi digital</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Mobile Berbasis Augmented Reality sebagai Media Pembelajaran pada Materi Komponen Perangkat Input dan Output</t>
+          <t>Perbandingan  Penggunaan Aplikasi Blender dengan Aplikasi 3DS Max Terhadap Pemahaman Siswa Pada Mata Pelajaran Animasi 3 Dimensi di SMK Batik 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pengembangan sistem informasi manajemen kegiatan pembelajaran berbasis web untuk sekolah haji dan umroh  Baitullah Rubaiyat</t>
+          <t>Pengembangan Media Pembelajaran Augmented Reality untuk Mata Kuliah Robotika di Program Studi Pendidikan Teknik Informatika dan Komputer  Universitas Sebelas Maret</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perbandingan Keaktifan Belajar Siswa Antara Pembelajaran Konvensional Dengan Pembelajaran Kooperatif Berbantuan Aplikasi Reward System Pada Mata Pelajaran Jaringan Dasar Di Smk Batik 2 Surakata </t>
+          <t xml:space="preserve">Pengembangan Media Pembelajaran Game Perakitan Komputer (Gapeko) Berbasis Android pada Mata Pelajaran Perakitan Komputer untuk Peserta Didik TKJ SMK Negeri 1 Sukoharjo </t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan Sistem Computer-Based Test (CBT) Berbasis Website (Studi Kasus Di Smk Negeri 1 Banyudono) </t>
+          <t xml:space="preserve">Perbandingan Keaktifan Belajar Siswa Antara Pembelajaran Konvensional Dengan Pembelajaran Kooperatif Berbantuan Aplikasi Reward System Pada Mata Pelajaran Jaringan Dasar Di Smk Batik 2 Surakata </t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penerapan Model Pembelajaran B-O-R-N Berbasis Moodle Untuk Meningkatkan Hasil Belajar Siswa Pada Mata Pelajaran Sistem Operasi Di Smkn 2 Karanganyar   </t>
+          <t xml:space="preserve">Pengembangan Sistem Computer-Based Test (CBT) Berbasis Website (Studi Kasus Di Smk Negeri 1 Banyudono) </t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perbandingan Pengaruh Penggunaan Simulator Cisco Packet Tracer dan Graphical Network Simulator 3 (Gns3)  sebagai Media Pembelajaran terhadap Prestasi Belajar Siswa Kelas XI pada Mata Pelajaran Instalasi Jaringan Lan di SMK Negeri 1 Sukoharjo</t>
+          <t xml:space="preserve">Penerapan Model Pembelajaran B-O-R-N Berbasis Moodle Untuk Meningkatkan Hasil Belajar Siswa Pada Mata Pelajaran Sistem Operasi Di Smkn 2 Karanganyar   </t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Trainer Jaringan terhadap Peningkatan Hasil Belajar Mata Kuliah Komunikasi Data dan Jaringan Komputer 1 Mahasiswa Program Studi PTIK FKIP UNS Tahun Ajaran 2016/2017</t>
+          <t>Perbandingan Pengaruh Penggunaan Simulator Cisco Packet Tracer dan Graphical Network Simulator 3 (Gns3)  sebagai Media Pembelajaran terhadap Prestasi Belajar Siswa Kelas XI pada Mata Pelajaran Instalasi Jaringan Lan di SMK Negeri 1 Sukoharjo</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perancangan dan Pembuatan Sistem Informasi Borang Akreditasi Berbasis Web</t>
+          <t>Efektivitas Penggunaan Media Trainer Jaringan terhadap Peningkatan Hasil Belajar Mata Kuliah Komunikasi Data dan Jaringan Komputer 1 Mahasiswa Program Studi PTIK FKIP UNS Tahun Ajaran 2016/2017</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Manajemen Seminar Internasional Berbasis Web di FKIP UNS</t>
+          <t>Perancangan dan Pembuatan Sistem Informasi Borang Akreditasi Berbasis Web</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pengembangan Laboratorium Keamanan Jaringan Berbasis Cloud Computing Menggunakan Container PTIK FKIP UNS</t>
+          <t>Pengembangan Sistem Informasi Manajemen Seminar Internasional Berbasis Web di FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pengembangan Laboratorium Virtual Untuk Simulasi Uji Penetrasi Keamanan Jaringan Komputer</t>
+          <t>Pengembangan Laboratorium Keamanan Jaringan Berbasis Cloud Computing Menggunakan Container PTIK FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pengembangan Web Media Center untuk Pembelajaran Online Berbasis Video pada Program Studi Pendidikan Teknik Informatika dan Komputer Fkip Uns</t>
+          <t>Pengembangan Laboratorium Virtual Untuk Simulasi Uji Penetrasi Keamanan Jaringan Komputer</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rancang Bangun Game Edukatif sebagai Media Pembelajaran Membaca dengan Pendekatan Gambar dan Suara untuk Anak Usia Dini Berbasis Android</t>
+          <t>Pengembangan Web Media Center untuk Pembelajaran Online Berbasis Video pada Program Studi Pendidikan Teknik Informatika dan Komputer Fkip Uns</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Perbandingan Antara Model Pembelajaran Berbabasis Proyek Berbantuan Edmodo dengan Pembelajaran Konvensional terhadap Hasil Belajar Teknik Animasi Dua Dimensi (Eksperimen Kelas XI SMK Batik 2 Surakarta)</t>
+          <t>Rancang Bangun Game Edukatif sebagai Media Pembelajaran Membaca dengan Pendekatan Gambar dan Suara untuk Anak Usia Dini Berbasis Android</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pengembangan Modul dan Aplikasi Augmented Reality Perakitan Komputer Berbasis Android untuk Siswa SMK</t>
+          <t>Perbandingan Antara Model Pembelajaran Berbabasis Proyek Berbantuan Edmodo dengan Pembelajaran Konvensional terhadap Hasil Belajar Teknik Animasi Dua Dimensi (Eksperimen Kelas XI SMK Batik 2 Surakarta)</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Analisis Kemampuan Technological Paedagogical Content Knowledge (TPACK) Calon Guru PTIK FKIP UNS dalam Mempersiapkan Pembelajaran</t>
+          <t>Pengembangan Modul dan Aplikasi Augmented Reality Perakitan Komputer Berbasis Android untuk Siswa SMK</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rancang Bangun Sistem Informasi Pengolah Nilai Siswa Sekolah Dasar Berbasis WEB  untuk Kurikulum 2013</t>
+          <t>Analisis Kemampuan Technological Paedagogical Content Knowledge (TPACK) Calon Guru PTIK FKIP UNS dalam Mempersiapkan Pembelajaran</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Studi Evaluasi Terhadap Game Edukatif untuk Pendidikan SD (Kelas Rendah) Dalam Pembelajaran Berhitung Ditinjau dari Aspek Gamifikasi dan Kurikulum</t>
+          <t>Rancang Bangun Sistem Informasi Pengolah Nilai Siswa Sekolah Dasar Berbasis WEB  untuk Kurikulum 2013</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Perbedaan Prestasi Belajar Ditinjau dari Gaya Belajar pada Penerapan Model Pembelajaran Kooperatif Tipe Think Talk Write (TTW) di SMK Negeri 1 Sawit</t>
+          <t>Studi Evaluasi Terhadap Game Edukatif untuk Pendidikan SD (Kelas Rendah) Dalam Pembelajaran Berhitung Ditinjau dari Aspek Gamifikasi dan Kurikulum</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Studi Komparasi Antara Model Pembelajaran Konvensional dengan Model Ubiquitous Learning (U-Learning) Terhadap Prestasi Belajar Ditinjau dari Motivasi Belajar Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital Kelas X SMK Yapek Gombong</t>
+          <t>Perbedaan Prestasi Belajar Ditinjau dari Gaya Belajar pada Penerapan Model Pembelajaran Kooperatif Tipe Think Talk Write (TTW) di SMK Negeri 1 Sawit</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pengaruh Fasilitas Belajar terhadap Prestasi Belajar Siswa pada Mata Pelajaran Pemrograman Web di SMK Negeri  5  Surakarta</t>
+          <t>Studi Komparasi Antara Model Pembelajaran Konvensional dengan Model Ubiquitous Learning (U-Learning) Terhadap Prestasi Belajar Ditinjau dari Motivasi Belajar Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital Kelas X SMK Yapek Gombong</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pengembangan Trainer Netcube untuk Media Belajar Praktik Addressing dan Routing Jaringan Komputer</t>
+          <t>Scoping Review Penggunaan Augmented Reality sebagai Media Pembelajaran dalam Meningkatkan Motivasi Siswa</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Perancangan dan Pembuatan Zmart Photoshop sebagai Penunjang Mata Pelajaran Pengolahan Citra Digital (Pcd) Siswa Kelas Xi Jurusan Multimedia Smk Negeri 1 Karanganyar</t>
+          <t>Pengaruh Fasilitas Belajar terhadap Prestasi Belajar Siswa pada Mata Pelajaran Pemrograman Web di SMK Negeri  5  Surakarta</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pengembangan Aplikasi Media Pembelajaran untuk Pembelajaran Bahasa Isyarat Berbasis Android</t>
+          <t>Pengembangan Trainer Netcube untuk Media Belajar Praktik Addressing dan Routing Jaringan Komputer</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Praktik Industri Berbasis Web pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
+          <t>Perancangan dan Pembuatan Zmart Photoshop sebagai Penunjang Mata Pelajaran Pengolahan Citra Digital (Pcd) Siswa Kelas Xi Jurusan Multimedia Smk Negeri 1 Karanganyar</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan Sistem Informasi Administrasi Program Studi Berbasis Web pada Program Pascasarjana  FKIP UNS   </t>
+          <t>Pengaruh Program Praktik Kerja Industri (Prakerin) terhadap Kesiapan Siswa Memasuki Dunia Kerja Studi Kasus di SMK Negeri 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Geografis (SIG) untuk Mitigasi Bencana Berbasis Web pada Satuan Pendidikan di Kecamatan Sawangan Kabupaten Magelang</t>
+          <t>Pengembangan Aplikasi Mobile Berbasis Augmented Reality sebagai Media Pembelajaran pada Materi Komponen Perangkat Input dan Output</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Penerapan Cooperative Learning Tipe STAD Pada Pembelajaran Daring Mata Pelajaran Informatika Ditinjau Dari Keaktifan dan Prestasi Belajar Siswa di SMP Negeri 1 Surakarta</t>
+          <t xml:space="preserve">Pengembangan Sistem Informasi Administrasi Program Studi Berbasis Web pada Program Pascasarjana  FKIP UNS   </t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Evaluasi Terhadap Media Pembelajaran Cybersecurity Daring Berbasis Capture the Flag Ditinjau dari Aspek Ethical Hacking dan Aspek Gamifikasi</t>
+          <t xml:space="preserve">Perbandingan Penggunaan E-Learning Berbasis Schoology dan Edmodo Terhadap Motivasi dan Hasil  Belajar Kognitif pada Mata Pelajaran Simulasi Digital di SMK Negeri 1 Sukoharjo  </t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Penerapan Teknik Klasifikasi Decision Tree untuk Memprediksi Lama Penyelesaian Tugas Akhir Mahasiswa Prodi PTIK FKIP UNS</t>
+          <t>Analisis Implementasi Recursive Query Menggunakan Database PostgreSQL Dan MySQL dalam Pengolahan Data Pemetaan Mutu Pendidikan</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Digitalisasi Sistem Manajemen Administrasi Sekolah di SMAN 12 Bandung dan Evaluasinya dengan System Usability Scale</t>
+          <t>Penerapan Cooperative Learning Tipe STAD Pada Pembelajaran Daring Mata Pelajaran Informatika Ditinjau Dari Keaktifan dan Prestasi Belajar Siswa di SMP Negeri 1 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Berbasis Permainan Papan dalam Mata Pelajaran Komputer dan Jaringan Dasar pada Peserta Didik Kelas X SMK Negeri 1 Banyudono</t>
+          <t>Evaluasi Terhadap Media Pembelajaran Cybersecurity Daring Berbasis Capture the Flag Ditinjau dari Aspek Ethical Hacking dan Aspek Gamifikasi</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Analisis Minds-On Activity Terhadap Kemampuan Computational Thinking Mahasiswa PG PAUD UNS</t>
+          <t>Penerapan Teknik Klasifikasi Decision Tree untuk Memprediksi Lama Penyelesaian Tugas Akhir Mahasiswa Prodi PTIK FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Penerapan Delone and Mclean Information System Success Model untuk Mengevaluasi Keberhasilan Adopsi Sistem Akademik Sistem Informasi Akademik Universitas Sebelas Maret</t>
+          <t>Digitalisasi Sistem Manajemen Administrasi Sekolah di SMAN 12 Bandung dan Evaluasinya dengan System Usability Scale</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tinjauan Pengaruh Game-Based Learning Terhadap Perkembangan Computational Thinking Skills dari Perspektif Teori Brennan &amp; Resnick</t>
+          <t>Pengembangan Media Pembelajaran Berbasis Permainan Papan dalam Mata Pelajaran Komputer dan Jaringan Dasar pada Peserta Didik Kelas X SMK Negeri 1 Banyudono</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Analisis Cluster untuk Pengelompokan Mahasiswa Berdasarkan Index of Learning Styles dengan Metode Hierarchical Clustering</t>
+          <t>Analisis Minds-On Activity Terhadap Kemampuan Computational Thinking Mahasiswa PG PAUD UNS</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Evaluasi Sistem Monitoring pada Perangkat Drip Irrigation System untuk Pembelajaran Internet of Things</t>
+          <t>Penerapan Delone and Mclean Information System Success Model untuk Mengevaluasi Keberhasilan Adopsi Sistem Akademik Sistem Informasi Akademik Universitas Sebelas Maret</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Analisis Implementasi Recursive Query Menggunakan Database PostgreSQL Dan MySQL dalam Pengolahan Data Pemetaan Mutu Pendidikan</t>
+          <t>Tinjauan Pengaruh Game-Based Learning Terhadap Perkembangan Computational Thinking Skills dari Perspektif Teori Brennan &amp; Resnick</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rancang Bangun Laboratorium Virtual Berbasis Private Cloud Dengan Model Layanan IAAS Sebagai Media Praktikum Jaringan Komputer</t>
+          <t>Pengaruh Penggunaan Model SAMR (Subtitution, Augmentation, Modification and Redefinition) terhadap Kemampuan Berpikir Kritis Siswa pada Mata Pelajaran Pemrograman Dasar Kelas X Multimedia SMK Batik 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pengembangan Game Visual Novel Sebagai Media Pembelajaran Sejarah Kemerdekaan Indonesia</t>
+          <t>Analisis Cluster untuk Pengelompokan Mahasiswa Berdasarkan Index of Learning Styles dengan Metode Hierarchical Clustering</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Analisis Kesesuaian Kurikulum Bidang Kompetensi Pengembangan Aplikasi Berbasis Web pada Program Studi PTIK UNS dengan Dunia Industri</t>
+          <t>Evaluasi Sistem Monitoring pada Perangkat Drip Irrigation System untuk Pembelajaran Internet of Things</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Berbasis Android pada Pokok Bahasan Sistem Peredaran Darah Manusia Mata Pelajaran IPA di SMP</t>
+          <t>Rancang Bangun Laboratorium Virtual Berbasis Private Cloud Dengan Model Layanan IAAS Sebagai Media Praktikum Jaringan Komputer</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perbandingan Penggunaan E-Learning Berbasis Schoology dan Edmodo Terhadap Motivasi dan Hasil  Belajar Kognitif pada Mata Pelajaran Simulasi Digital di SMK Negeri 1 Sukoharjo  </t>
+          <t>Rancang Bangun Laboratorium Virtual Berbasis Private Cloud Dengan Model Layanan IAAS Sebagai Media Praktikum Jaringan Komputer</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Analisis Tingkat Self Regulated Learning pada Mahasiswa JPTK  Selama Pandemi Covid-19</t>
+          <t>Pengembangan Game Visual Novel Sebagai Media Pembelajaran Sejarah Kemerdekaan Indonesia</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Perbandingan Penerapan Model Pembelajaran Discovery Learning Dengan Creative Problem Solving dalam Meningkatkan Pemahaman Konsep dan Hasil Belajar Peserta Didik pada Mata Pelajaran Sistem Komputer di SMK Negeri 6 Surakarta</t>
+          <t>Analisis Kesesuaian Kurikulum Bidang Kompetensi Pengembangan Aplikasi Berbasis Web pada Program Studi PTIK UNS dengan Dunia Industri</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Evaluasi Kemampuan Abstraksi Siswa dengan Model Hands On Activity dalam Pembelajaran STEM Menggunakan Modul Robotika</t>
+          <t>Pengembangan Media Pembelajaran Berbasis Android pada Pokok Bahasan Sistem Peredaran Darah Manusia Mata Pelajaran IPA di SMP</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Mobile Learning Berbasis Androoid pada Materi Perakitan Komputer di Kelas X RPL SMK N 5 Surakarta</t>
+          <t>Pengaruh Motivasi dan Pemahaman Diagram Siswa Menggunakan Microsoft Office Visio Terhadap Hasil Belajar Kognitif pada Mata Pelajaran Pemodelan Perangkat Lunak</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Android Berbasis Augmented Reality (AR) pada Pokok Bahasan Konsep Routing Mata Pelajaran Administrasi Infratruktur Jaringan di SMK</t>
+          <t>Pengembangan Sistem Informasi Praktik Industri Berbasis Web pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pengembangan Game Edukasi Bergenre Role Playing Game (RPG) Sebagai Media Pembelajaran Biologi pada Materi Klasifikasi Makhluk Hidup Kelas VII SMP</t>
+          <t>Perbandingan Penerapan Model Pembelajaran Discovery Learning Dengan Creative Problem Solving dalam Meningkatkan Pemahaman Konsep dan Hasil Belajar Peserta Didik pada Mata Pelajaran Sistem Komputer di SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Rancang Bangun Laboratorium Virtual Berbasis Private Cloud Dengan Model Layanan IAAS Sebagai Media Praktikum Jaringan Komputer</t>
+          <t>Evaluasi Kemampuan Abstraksi Siswa dengan Model Hands On Activity dalam Pembelajaran STEM Menggunakan Modul Robotika</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Analisis Implementasi Recursive Query Menggunakan Database PostgreSQL Dan MySQL dalam Pengolahan Data Pemetaan Mutu Pendidikan</t>
+          <t>Pengembangan Media Pembelajaran Mobile Learning Berbasis Androoid pada Materi Perakitan Komputer di Kelas X RPL SMK N 5 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Analisis Perbandingan Algoritma AHP dan PROMETHEE dalam Pengembangan Sistem Pendukung Keputusan Penerimaan Beasiswa di Universitas Sebelas Maret Surakarta</t>
+          <t>Pengembangan Media Pembelajaran Android Berbasis Augmented Reality (AR) pada Pokok Bahasan Konsep Routing Mata Pelajaran Administrasi Infratruktur Jaringan di SMK</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Perbedaan Self Efficacy Peserta Didik Ditinjau dari Penggunaan Media Berbasis Android dan Powerpoint dalam Pelaksanaan Pembelajaran Daring</t>
+          <t>Analisis Implementasi Recursive Query Menggunakan Database PostgreSQL Dan MySQL dalam Pengolahan Data Pemetaan Mutu Pendidikan</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PENGEMBANGAN MEDIA PEMBELAJARAN INTERAKTIF MENGGUNAKAN ARTICULATE STORYLINE DALAM PEMBELAJARAN BERBASIS MASALAH (PBL) PADA MATERI PERANGKAT KERAS KOMPUTER KELAS VII SMP</t>
+          <t>Analisis Perbandingan Algoritma AHP dan PROMETHEE dalam Pengembangan Sistem Pendukung Keputusan Penerimaan Beasiswa di Universitas Sebelas Maret Surakarta</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran  Berbasis Augmented Reality  (AR) pada Pokok  Bahasan Bentuk Molekul Mata Pelajaran Kimia  di SMA</t>
+          <t>Perbedaan Self Efficacy Peserta Didik Ditinjau dari Penggunaan Media Berbasis Android dan Powerpoint dalam Pelaksanaan Pembelajaran Daring</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Manajemen Ekstrakurikuler Berbasis Web di SMA Negeri 4 Surakarta</t>
+          <t>Analisis Perbandingan Optical Character Recognition Google Vision Dengan Tesseract Pada Pengenalan Teks Koran</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PENGEMBANGAN MEDIA PEMBELAJARAN ADAPTIF BERBASISAPI UNTUK PEMROGRAMAN PYTHON</t>
+          <t>PENGEMBANGAN MEDIA PEMBELAJARAN INTERAKTIF MENGGUNAKAN ARTICULATE STORYLINE DALAM PEMBELAJARAN BERBASIS MASALAH (PBL) PADA MATERI PERANGKAT KERAS KOMPUTER KELAS VII SMP</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Berbasis Website Sebagai Jembatan Antara Orang Tua dan Siswa Untuk Memantau Perkembangan Belajar Siswa di Sekolah</t>
+          <t>Pengembangan Media Pembelajaran  Berbasis Augmented Reality  (AR) pada Pokok  Bahasan Bentuk Molekul Mata Pelajaran Kimia  di SMA</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pengaruh Model Pembelajaran Gamified Flip Instruction Guna Memaksimalkan Hasil Belajar Siswa Kelas X TITL SMK Batur Jaya 1 Ceper pada Mata Pelajaran Simulasi dan Komunikasi Digital</t>
+          <t>Pengembangan Sistem Informasi Manajemen Ekstrakurikuler Berbasis Web di SMA Negeri 4 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pengenalan Aksara Jawa Melalui Media Kartu Menggunakan Augmented Reality untuk Anak Sekolah Dasar</t>
+          <t>PENGEMBANGAN MEDIA PEMBELAJARAN ADAPTIF BERBASISAPI UNTUK PEMROGRAMAN PYTHON</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Analisis Perbandingan Antara Menggunakan Platform Konferesi Video Google Meet dan Gather.Town Ditinjau Dari User Experience Menggunakan meCUE Questionnaire Pada Pelajar</t>
+          <t>Pengaruh Model Inquiry Based Learning Berbantu Media Augmented Reality terhadap Kemampuan Berpikir Kritis Siswa Mata Pelajaran Animasi 3D di Smk Batik 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluasi Aplikasi Mobile Untuk Pembelajaran Pemrograman Dasar Ditinjau dari Aspek Gamifikasi </t>
+          <t>Pengembangan Sistem Informasi Berbasis Website Sebagai Jembatan Antara Orang Tua dan Siswa Untuk Memantau Perkembangan Belajar Siswa di Sekolah</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Evaluasi Terhadap Aplikasi Simulator Jaringan Komputer Untuk Mendukung Pembelajaran Online</t>
+          <t>Pengaruh Model Pembelajaran Gamified Flip Instruction Guna Memaksimalkan Hasil Belajar Siswa Kelas X TITL SMK Batur Jaya 1 Ceper pada Mata Pelajaran Simulasi dan Komunikasi Digital</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Pengembangan R-ETA : Real-Time Electronic Travel Aids Dengan Sistem Deteksi Objek 3 Dimensi dan Sistem Pemantauan Jarak Jauh Untuk Tunanetra</t>
+          <t>Pengembangan Media Pengenalan Aksara Jawa Melalui Media Kartu Menggunakan Augmented Reality untuk Anak Sekolah Dasar</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Implementasi Algoritma C4.5 Untuk Memprediksi Prestasi Belajar Siswa di SMK Negeri 6 Surakarta</t>
+          <t>Analisis Perbandingan Antara Menggunakan Platform Konferesi Video Google Meet dan Gather.Town Ditinjau Dari User Experience Menggunakan meCUE Questionnaire Pada Pelajar</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PENGEMBANGAN MEDIA PEMBELAJARN AUGMENTED REALITY BERBASIS ANDROID MATA PEMBELAJARAN KIMIA KELAS X SMK PENDA 3 JATIPURO</t>
+          <t xml:space="preserve">Evaluasi Aplikasi Mobile Untuk Pembelajaran Pemrograman Dasar Ditinjau dari Aspek Gamifikasi </t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Penugasan Berbasis Web dengan Menerapkan Elemen Gamifikasi Leaderboard dan Quest Di SMK Negeri 2 Surakarta</t>
+          <t>Evaluasi Terhadap Aplikasi Simulator Jaringan Komputer Untuk Mendukung Pembelajaran Online</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PENGEMBANGAN MEDIA PEMBELAJARAN BERBASIS AUGMENTED REALITY PADA PEMBELAJARAN TEMATIK PENDIDIKAN ANAK USIA DINI TEMA PENGENALAN HEWAN</t>
+          <t>Pengembangan Game Edukasi Bergenre Role Playing Game (RPG) Sebagai Media Pembelajaran Biologi pada Materi Klasifikasi Makhluk Hidup Kelas VII SMP</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Upaya Meningkatkan Hasil Belajar pada Pokok Bahasan Puisi Rakyat Mata Pelajaran Bahasa Indonesia Siswa Kelas VII Melalui Media Video Pembelajaran di SMP Negeri 1 Gerih</t>
+          <t>Pengembangan R-ETA : Real-Time Electronic Travel Aids Dengan Sistem Deteksi Objek 3 Dimensi dan Sistem Pemantauan Jarak Jauh Untuk Tunanetra</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Kajian Literatur Terhadap Evaluasi Kemampuan Abstraksi Siswa Dalam Pembelajaran STEM Menggunakan Modul Robotika</t>
+          <t>Implementasi Algoritma C4.5 Untuk Memprediksi Prestasi Belajar Siswa di SMK Negeri 6 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Augmented Reality Materi Plantae pada Mata Pelajaran Biologi Kelas X dengan Menggunakan ARToolkit</t>
+          <t>PENGEMBANGAN MEDIA PEMBELAJARN AUGMENTED REALITY BERBASIS ANDROID MATA PEMBELAJARAN KIMIA KELAS X SMK PENDA 3 JATIPURO</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Pengaruh Inquiry Based Learning (IBL) berbantuan Open Video Repository Terhadap Minat dan Hasil Belajar Siswa pada Mata Pelajaran Dasar-Dasar Teknik Jaringan Komputer dan Telekomunikasi di SMK</t>
+          <t>Pengembangan Sistem Informasi Penugasan Berbasis Web dengan Menerapkan Elemen Gamifikasi Leaderboard dan Quest Di SMK Negeri 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hubungan Antara Efikasi Diri dan Kemandirian Belajar dengan Kesiapan Kerja Siswa Kelas XII Program Keahlian Teknik Komputer SMK Muhammadiyah 1 Sukoharjo</t>
+          <t>PENGEMBANGAN MEDIA PEMBELAJARAN BERBASIS AUGMENTED REALITY PADA PEMBELAJARAN TEMATIK PENDIDIKAN ANAK USIA DINI TEMA PENGENALAN HEWAN</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Analisis Implementasi Teknologi Cloud Computing pada Universitas Ditinjau dari Total Cost of Ownership</t>
+          <t>Upaya Meningkatkan Hasil Belajar pada Pokok Bahasan Puisi Rakyat Mata Pelajaran Bahasa Indonesia Siswa Kelas VII Melalui Media Video Pembelajaran di SMP Negeri 1 Gerih</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Desain Pembelajaran Untuk Meningkatkan Sikap Kewirausahaan Siswa Studi Kasus di SMK Negeri 1 Sawit Boyolali</t>
+          <t>Kajian Literatur Terhadap Evaluasi Kemampuan Abstraksi Siswa Dalam Pembelajaran STEM Menggunakan Modul Robotika</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Analisis Perbandingan Optical Character Recognition Google Vision Dengan Tesseract Pada Pengenalan Teks Koran</t>
+          <t>Pengembangan Media Pembelajaran Augmented Reality Materi Plantae pada Mata Pelajaran Biologi Kelas X dengan Menggunakan ARToolkit</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pengaruh Discovery Learning menggunakan Probing-Prompting terhadap Hasil Belajar Siswa pada Mata Pelajaran Dasar-dasar Teknik Jaringan Komputer dan Telekomunikasi Kelas X - TKJ SMKN 2 Surakarta</t>
+          <t>Pengaruh Inquiry Based Learning (IBL) berbantuan Open Video Repository Terhadap Minat dan Hasil Belajar Siswa pada Mata Pelajaran Dasar-Dasar Teknik Jaringan Komputer dan Telekomunikasi di SMK</t>
         </is>
       </c>
     </row>
@@ -2080,6 +2080,106 @@
         <v>1</v>
       </c>
       <c r="B165" t="inlineStr">
+        <is>
+          <t>Hubungan Antara Efikasi Diri dan Kemandirian Belajar dengan Kesiapan Kerja Siswa Kelas XII Program Keahlian Teknik Komputer SMK Muhammadiyah 1 Sukoharjo</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Analisis Implementasi Teknologi Cloud Computing pada Universitas Ditinjau dari Total Cost of Ownership</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Desain Pembelajaran Untuk Meningkatkan Sikap Kewirausahaan Siswa Studi Kasus di SMK Negeri 1 Sawit Boyolali</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ANALISIS KEMAMPUAN BERPIKIR KRITIS UNTUK KETERAMPILAN MENGONFIGURASI KONTROL PANEL HOSTING MENGGUNAKAN MEDIA VPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pengaruh Discovery Learning menggunakan Probing-Prompting terhadap Hasil Belajar Siswa pada Mata Pelajaran Dasar-dasar Teknik Jaringan Komputer dan Telekomunikasi Kelas X - TKJ SMKN 2 Surakarta</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Analisis Tingkat Self Regulated Learning pada Mahasiswa JPTK  Selama Pandemi Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pengaruh Penggunaan Tepung Telur Infertil dalam Ransum terhadap Bobot Potong, Bobot Karkas, dan Lemak Abdominal Ayam Broiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Analisis dan Evaluasi Aplikasi Berbasis Mobile Sebagai Media Belajar Bahasa Pemrogramdn Python Ditinjau dari Aspek Usability Dan Kualitas Materi</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Analisis Peranan Computational Thinking dalam Pencapaian Keterampilan Abad Ke-21 Menggunakan Media Berbasis Robotika pada Siswa Pendidikan Menengah Kejuruan</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Evaluasi Sistem Manajemen Konferensi Cbuddy Menggunakan Model Technology Acceptance Model  (TAM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>Pengembangan Sistem Pendukung Keputusan
 untuk Menentukan Siswa Berprestasi
@@ -2087,113 +2187,13 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Pengaruh Motivasi dan Pemahaman Diagram Siswa Menggunakan Microsoft Office Visio Terhadap Hasil Belajar Kognitif pada Mata Pelajaran Pemodelan Perangkat Lunak</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Implementasi Data Mining untuk Memprediksi Masa Studi Mahasiswa Menggunakan Metode C4.5 (Studi Kasus PTIK FKIP UNS)</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Efektifitas penggunaan komputer mikro raspberry pi sebagai media pembelajaran sistem operasi ditinjau dari minat dan prestasi belajar siswa SMK Negeri 1 Sawit Boyolali </t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Pengaruh penggunaan teknologi cloud computing berbasis Software As A Service terhadap pengelolaan kegiatan pembelajaran ( studi kasus di  SMK Negeri 1 Sawit )</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Penerapan Model Pembelajaran Problem Based Learning Dengan Metode Mind Mapping Untuk Meningkatkan Keaktifan Dan Hasil Belajar Siswa Kelas Xi Tkj 2 Pada Mata Pelajaran Administrasi Sistem Jaringan</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Efektivitas Penerapan Model Pembelajaran Student Team Achievement Division (STAD) Berbasis Online Ditinjau dari Hasil Belajar dan Disiplin Belajar Siswa pada Mata Pelajaran Desain Grafis Percetakan</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>PHP Intelligent Tutor: Media Pembelajaran Adaptif Berbasis Web Api untuk Pemrograman PHP dengan Model Expert, Student, dan Instructional</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Pengaruh model pembelajaran kooperatif tipe Think Pair Square  untuk meningkatkan partisipasi dan hasil belajar  siswa kelas X TKJ SMK Negeri 1 Sukoharjo  pada mata pelajaran sistem komputer</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Analisis Profil Gaya Belajar Mahasiswa Milenial Dengan Menggunakan Index Of Learning Styles</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Analisis dan Evaluasi Aplikasi Berbasis Mobile Sebagai Media Belajar Bahasa Pemrogramdn Python Ditinjau dari Aspek Usability Dan Kualitas Materi</t>
-        </is>
-      </c>
-    </row>
     <row r="176">
       <c r="A176" t="n">
         <v>1</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Analisis Peranan Computational Thinking dalam Pencapaian Keterampilan Abad Ke-21 Menggunakan Media Berbasis Robotika pada Siswa Pendidikan Menengah Kejuruan</t>
+          <t>Sistem Pembelajaran Adaptif Berbasis Api untuk Pemrograman Java dengan Pendekatan Model Siswa dan Instruksional</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Evaluasi Sistem Manajemen Konferensi Cbuddy Menggunakan Model Technology Acceptance Model  (TAM)</t>
+          <t>Pengembangan Perangkat Robotika untuk Pembelajaran Anak Usia Dini dalam Memfasilitasi Pengembangan Computational Thinking</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efektivitas Penggunaan Media Pembelajaran Berbasis Video Tutorial dalam Pembelajaran Internet Of Things </t>
+          <t>Analisis Kepuasan Pengguna Aplikasi Mobile Cguide (Cbuddy Conference Guide) Menggunakan Model End User Computing Satisfaction (EUCS)</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sistem Pembelajaran Adaptif Berbasis Api untuk Pemrograman Java dengan Pendekatan Model Siswa dan Instruksional</t>
+          <t xml:space="preserve">Pengembangan Rhythm Game Berbasis Android dengan Unity 2D Sebagai Media Pembelajaran Seni Musik Gamelan </t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pengembangan Perangkat Robotika untuk Pembelajaran Anak Usia Dini dalam Memfasilitasi Pengembangan Computational Thinking</t>
+          <t>Evaluasi Magang Kependidikan 3 Prodi Pendidikan Teknik Informatika dan Komputer</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Analisis Kepuasan Pengguna Aplikasi Mobile Cguide (Cbuddy Conference Guide) Menggunakan Model End User Computing Satisfaction (EUCS)</t>
+          <t>Pembuatan E-Portofolio Tugas Siswa SMK Berbasis Web</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan Rhythm Game Berbasis Android dengan Unity 2D Sebagai Media Pembelajaran Seni Musik Gamelan </t>
+          <t>Penerapan Model Pembelajaran Problem Based Learning Dengan Metode Mind Mapping Untuk Meningkatkan Keaktifan Dan Hasil Belajar Siswa Kelas Xi Tkj 2 Pada Mata Pelajaran Administrasi Sistem Jaringan</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Evaluasi Magang Kependidikan 3 Prodi Pendidikan Teknik Informatika dan Komputer</t>
+          <t>Pengembangan Sistem Informasi Agenda Terintegrasi Google Apps pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pembuatan E-Portofolio Tugas Siswa SMK Berbasis Web</t>
+          <t>Analisis Profil Gaya Belajar Mahasiswa Milenial Dengan Menggunakan Index Of Learning Styles</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengembangan trainer wallnet sebagai media belajar dalam mempersiapkan uji kompetensi keahlian Jurusan TKJ di SMK Negeri 1 Sawit   </t>
+          <t>Pengaruh model pembelajaran kooperatif tipe Think Pair Square  untuk meningkatkan partisipasi dan hasil belajar  siswa kelas X TKJ SMK Negeri 1 Sukoharjo  pada mata pelajaran sistem komputer</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pengembangan media pembelajaran berbasis android pada mata pelajaran bahasa arab kelas IV di MI Syafaat Muhammadiyah Jetis</t>
+          <t>Pengaruh penggunaan teknologi cloud computing berbasis Software As A Service terhadap pengelolaan kegiatan pembelajaran ( studi kasus di  SMK Negeri 1 Sawit )</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Informasi Agenda Terintegrasi Google Apps pada Program Studi Pendidikan Teknik Informatika dan Komputer FKIP UNS</t>
+          <t xml:space="preserve">Efektifitas penggunaan komputer mikro raspberry pi sebagai media pembelajaran sistem operasi ditinjau dari minat dan prestasi belajar siswa SMK Negeri 1 Sawit Boyolali </t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Perancangan dan Pengembangan Sistem Informasi Perpustakaan Berbasis Web SMK Tekno-Sa Surakarta</t>
+          <t xml:space="preserve">Pengembangan trainer wallnet sebagai media belajar dalam mempersiapkan uji kompetensi keahlian Jurusan TKJ di SMK Negeri 1 Sawit   </t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Tepung Telur Infertil dalam Ransum terhadap Bobot Potong, Bobot Karkas, dan Lemak Abdominal Ayam Broiler</t>
+          <t>Pengembangan media pembelajaran berbasis android pada mata pelajaran bahasa arab kelas IV di MI Syafaat Muhammadiyah Jetis</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perancangan Wireless Mesh Network untuk Meningkatkan Kinerja Jaringan Wi-Fi di Kampus V FKIP UNS</t>
+          <t>Perancangan dan Pengembangan Sistem Informasi Perpustakaan Berbasis Web SMK Tekno-Sa Surakarta</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Media Pembelajaran Modul Berbasis Teks dan Video Terhadap Hasil Belajar Siswa pada Mata Pelajaran Administrasi Sistem Jaringan di SMK Negeri 2 Surakarta</t>
+          <t>Pengembangan Sistem Rekomendasi Bursa Kerja Khusus Berbasis Web dengan Metode Simple Additive Weighting Bagi Siswa dan Alumni SMK Se-Surakarta</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Pembelajaran Videoscribe untuk Meningkatkan Motivasi Belajar dan Hasil Belajar Siswa pada Mata Pelajaran Dasar Desain Grafis di SMK Negeri 5 Surakarta</t>
+          <t>Pengembangan Media Pembelajaran Interaktif Subnetting untuk Siswa Kelas X Rekayasa Perangkat Lunak SMK Negeri 2 Karanganyar</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Penerapan Algoritma Naive Bayes Classifier untuk Prediksi Perkiraan Waktu Tunggu Alumni Mendapatkan Pekerjaan (Studi Kasus : pada Program Studi PTIK FKIP UNS)</t>
+          <t>Perancangan Wireless Mesh Network untuk Meningkatkan Kinerja Jaringan Wi-Fi di Kampus V FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Pengembangan Sistem Rekomendasi Bursa Kerja Khusus Berbasis Web dengan Metode Simple Additive Weighting Bagi Siswa dan Alumni SMK Se-Surakarta</t>
+          <t>Pengembangan Sistem Informasi Geografis (SIG) untuk Mitigasi Bencana Berbasis Web pada Satuan Pendidikan di Kecamatan Sawangan Kabupaten Magelang</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Implementasi Data Mining untuk Memprediksi Masa Studi Mahasiswa Menggunakan Metode C4.5 (Studi Kasus PTIK FKIP UNS)</t>
+          <t>Efektivitas Penggunaan Media Pembelajaran Augmented Reality dalam Meningkatkan Kemampuan Berpikir Kritis Mata Kuliah Teknik Animasi 3 Dimensi Mahasiswa Program Studi Ptik FKIP UNS</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pengembangan Media Pembelajaran Interaktif Subnetting untuk Siswa Kelas X Rekayasa Perangkat Lunak SMK Negeri 2 Karanganyar</t>
+          <t>PHP Intelligent Tutor: Media Pembelajaran Adaptif Berbasis Web Api untuk Pemrograman PHP dengan Model Expert, Student, dan Instructional</t>
         </is>
       </c>
     </row>
@@ -2403,107 +2403,107 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pengaruh Strategi Practice Rehearsal Pair dalam Model Pembelajaran Active Learning Terhadap Kreativitas  dan Collaboration Skill Siswa pada Mata Pelajaran  Dasar Desain Grafis</t>
+          <t xml:space="preserve">Efektivitas Penggunaan Media Pembelajaran Berbasis Video Tutorial dalam Pembelajaran Internet Of Things </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pengaruh Media Pembelajaran Berbasis Augmented Reality dan Buku Teks terhadap Motivasi Belajar dan Persepsi Keaktifan Peserta Didik pada Materi Pelajaran Organ Mata</t>
+          <t>Implementasi Data Mining untuk Memprediksi Masa Studi Mahasiswa Menggunakan Metode C4.5 (Studi Kasus PTIK FKIP UNS)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengaruh mastery-based blended learning terhadap kemandirian dan kreativitas siswa pada mata pelajaran dasar desain grafis Kelas Xj TKJ SMK N 1 Sawit Boyolali </t>
+          <t>Pengaruh Kombinasi Model Pembelajaran Flipped Classroom dan Mind Mapping untuk Meningkatkan Kemampuan Berpikir Kritis Siswa</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengaruh project-based blended learning terhadap hasil belajar peserta didik kelas X Multimedia SMK negeri 6 Surakarta pada mata pelajaran dasar desain grafis   </t>
+          <t>Efektivitas Model Pembelajaran Guided Inquiry Ditinjau dari Kemampuan Berpikir Kritis Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital di SMK Negeri 2 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Perbedaan penggunaan model pembelajaran PBL dengan tutor sebaya terhadap pemahaman siswa  pada mata pelajaran dasar desain grafis kelas X jurusan multimedia SMK Batik 2 Surakarta</t>
+          <t>Efektivitas Penerapan Model Pembelajaran Student Team Achievement Division (STAD) Berbasis Online Ditinjau dari Hasil Belajar dan Disiplin Belajar Siswa pada Mata Pelajaran Desain Grafis Percetakan</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Perancangan Sistem Informasi Pencatatan Kehadiran Peserta Didik dengan Arsitektur Restful Web Service di Smk Batik 2 Surakarta</t>
+          <t>Penerapan Algoritma Naive Bayes Classifier untuk Prediksi Perkiraan Waktu Tunggu Alumni Mendapatkan Pekerjaan (Studi Kasus : pada Program Studi PTIK FKIP UNS)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Analisis Implementasi E-Learning di Smk N 1 Sawit Boyolali dengan Menggunakan Technology Acceptance Model (TAM)</t>
+          <t>Implementasi Data Mining untuk Memprediksi Masa Studi Mahasiswa Menggunakan Metode C4.5 (Studi Kasus PTIK FKIP UNS)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pengaruh Hasil Belajar Kewirausahaan Dan Desain Multimedia Interaktif Terhadap Perilaku Kewirausahaan Peserta Didik Kelas XI Kompetensi Keahlian Multimedia Di SMKN 4 Banjarbaru</t>
+          <t xml:space="preserve">Efektifitas Penggunaan Pembelajaran Daring dengan LMS Google Classroom dalam Meningkatkan Kemampuan Berpikir Kritis </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pengaruh Penggunaan Media Sosial dan Game Online terhadap Kesiapan Belajar dan Motivasi Belajar Peserta Didik Kelas XII Animasi dan Multimedia SMK Negeri 9 Surakarta </t>
+          <t>Efektivitas Penggunaan Media Pembelajaran Videoscribe untuk Meningkatkan Motivasi Belajar dan Hasil Belajar Siswa pada Mata Pelajaran Dasar Desain Grafis di SMK Negeri 5 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Keefektifan Penggunaan Blended Learning Berbantuan Google Classroom Ditinjau dari Prestasi Belajar Peserta Didik pada Mata Pelajaran Dasar Desain Grafis SMK Negeri 1 Surakarta</t>
+          <t>Pengaruh Strategi Practice Rehearsal Pair dalam Model Pembelajaran Active Learning Terhadap Kreativitas  dan Collaboration Skill Siswa pada Mata Pelajaran  Dasar Desain Grafis</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PENERAPAN MODEL PEMBELAJARAN PROJECT BASED LEARNING PADA MATA PELAJARAN TEKNIK ANIMASI 2D DAN 3D                UNTUK MENINGKATKAN KETERAMPILAN PSIKOMOTORIK DAN KREATIVITAS PESERTA DIDIK KELAS XI MULTIMEDIA SMK NEGERI 3 SURAKARTA</t>
+          <t>Pengaruh Penggunaan Media Pembelajaran Modul Berbasis Teks dan Video Terhadap Hasil Belajar Siswa pada Mata Pelajaran Administrasi Sistem Jaringan di SMK Negeri 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Perbandingan antara Penggunaan Scratch dengan Model Problem Based Learning dan Pembelajaran Konvensional Terhadap Kemampuan Berpikir Algoritmis Peserta Didik pada Mata Pelajaran Pemrograman Dasar</t>
+          <t>Perancangan Sistem Informasi Pencatatan Kehadiran Peserta Didik dengan Arsitektur Restful Web Service di Smk Batik 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Analisis kesalahan peserta didik dalam menyelesaikan soal pemrograman dasar kelas x MM 1 SMK Negeri 7 Surakarta</t>
+          <t>Peningkatan Kompetensi Peserta Didik pada Mata Pelajaran Pemrograman Dasar Menggunakan Model Kooperatif Tipe Stad Berlatar Musik Klasik Kelas X Multimedia 1 SMK Negeri 3 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Penerapan model pembelajaran project based learning (pbl) pada mata pelajaran pemrograman desktop untuk meningkatkan hasil belajar peserta didik kelas xi rpl b smk negeri 2 Karanganyar</t>
+          <t>Perbedaan penggunaan model pembelajaran PBL dengan tutor sebaya terhadap pemahaman siswa  pada mata pelajaran dasar desain grafis kelas X jurusan multimedia SMK Batik 2 Surakarta</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pemanfaatan Aplikasi Scratch sebagai Upaya Meningkatkan Hasil Belajar dan Motivasi Belajar Peserta Didik pada Mata Pelajaran Pemrograman Dasar di Kelas X TKJ SMK N 1 Sawit</t>
+          <t xml:space="preserve">Pengaruh Penggunaan Media Sosial dan Game Online terhadap Kesiapan Belajar dan Motivasi Belajar Peserta Didik Kelas XII Animasi dan Multimedia SMK Negeri 9 Surakarta </t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pengaruh Model Pembelajaran Blended Learning Dengan Strategi Flipped ClassroomTerhadap Kemandirian Dan Hasil Belajar Pada Mata Pelajaran Simulasi Digital Siswa Kelas X Di SMK Negeri 1 Gondang</t>
+          <t>Perbandingan antara Penggunaan Scratch dengan Model Problem Based Learning dan Pembelajaran Konvensional Terhadap Kemampuan Berpikir Algoritmis Peserta Didik pada Mata Pelajaran Pemrograman Dasar</t>
         </is>
       </c>
     </row>
@@ -2563,107 +2563,107 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Peningkatan Kompetensi Peserta Didik pada Mata Pelajaran Pemrograman Dasar Menggunakan Model Kooperatif Tipe Stad Berlatar Musik Klasik Kelas X Multimedia 1 SMK Negeri 3 Surakarta</t>
+          <t>Pemanfaatan Aplikasi Scratch sebagai Upaya Meningkatkan Hasil Belajar dan Motivasi Belajar Peserta Didik pada Mata Pelajaran Pemrograman Dasar di Kelas X TKJ SMK N 1 Sawit</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pengaruh Model Pembelajaran Blended Learning Tipe Flex Berbantuan Google Classroom Terhadap Tingkat Self Regulated Learning Siswa</t>
+          <t xml:space="preserve">Pengaruh mastery-based blended learning terhadap kemandirian dan kreativitas siswa pada mata pelajaran dasar desain grafis Kelas Xj TKJ SMK N 1 Sawit Boyolali </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Penerapan Project Based Learning untuk Meningkatkan Aktivitas dan Kompetensi Instalasi Sistem Operasi Berbasis GUI dan CLI pada Siswa Kelas X TKJ di SMK N 1 Sawit</t>
+          <t>Analisis kesalahan peserta didik dalam menyelesaikan soal pemrograman dasar kelas x MM 1 SMK Negeri 7 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pengaruh Model Pembelajaran Problem Based Learning Dipadu Group Investigation Terhadap Hasil Belajar dan Keaktifan pada Mata Pelajaran Komputer dan Jaringan Dasar Siswa Kelas X di SMK N 5 Surakarta</t>
+          <t>Pengaruh Hasil Belajar Kewirausahaan Dan Desain Multimedia Interaktif Terhadap Perilaku Kewirausahaan Peserta Didik Kelas XI Kompetensi Keahlian Multimedia Di SMKN 4 Banjarbaru</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Evaluasi Penerapan Technological Pedagogical Content Knowledge (TPACK)   pada Model Blended Learning  Berdasarkan Persepsi Siswa</t>
+          <t>PENERAPAN MODEL PEMBELAJARAN PROJECT BASED LEARNING PADA MATA PELAJARAN TEKNIK ANIMASI 2D DAN 3D                UNTUK MENINGKATKAN KETERAMPILAN PSIKOMOTORIK DAN KREATIVITAS PESERTA DIDIK KELAS XI MULTIMEDIA SMK NEGERI 3 SURAKARTA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Perbandingan Model Blended Learning Menggunakan Strategi Think, Pair, Share Berbantuan Google Classroom dengan Traditional Learning terhadap Motivasi Belajar dan Hasil Belajar Siswa pada Mata Pelajaran Produktif Kelas XII TKJ di SMK Mabdaul Ma’arif Jember</t>
+          <t>Keefektifan Penggunaan Blended Learning Berbantuan Google Classroom Ditinjau dari Prestasi Belajar Peserta Didik pada Mata Pelajaran Dasar Desain Grafis SMK Negeri 1 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Pembelajaran Berbasis Android Aritmatika Digital dalam Model Discovery Based Learning terhadap Prestasi Belajar Sistem Komputer Kelas X Multimedia SMKN 6 SurakartaK3513061</t>
+          <t>Pengaruh Model Pembelajaran Blended Learning Dengan Strategi Flipped ClassroomTerhadap Kemandirian Dan Hasil Belajar Pada Mata Pelajaran Simulasi Digital Siswa Kelas X Di SMK Negeri 1 Gondang</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementasi Model Pembelajaran Team Assisted Individualization (TAI) Secara Blended Learning Menggunakan Schoology Ditinjau dari Hasil Belajar Siswa </t>
+          <t>Analisis Implementasi E-Learning di Smk N 1 Sawit Boyolali dengan Menggunakan Technology Acceptance Model (TAM)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Penerapan Model Pembelajaran Online Project Based Learning dengan Perpaduan Collaborative Learning untuk Meningkatkan Hasil Belajar Komposisi Foto Digital pada Siswa Multimedia SMK Negeri Takeran</t>
+          <t>Penerapan model pembelajaran project based learning (pbl) pada mata pelajaran pemrograman desktop untuk meningkatkan hasil belajar peserta didik kelas xi rpl b smk negeri 2 Karanganyar</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pengaruh penerapan model pembelajaran blended learning  tipe face to face driver model terhadap minat dan hasil belajar mata pelajaran simulasi digital siswa SMK Sakti Gemolong</t>
+          <t xml:space="preserve">Pengaruh project-based blended learning terhadap hasil belajar peserta didik kelas X Multimedia SMK negeri 6 Surakarta pada mata pelajaran dasar desain grafis   </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Blended Learning Tipe Flipped Classroom Ditinjau dari Hasil Belajar Siswa pada Mata Pelajaran Simulasi Digital di SMK Negeri 3 Surakarta</t>
+          <t>Pengaruh Media Pembelajaran Berbasis Augmented Reality dan Buku Teks terhadap Motivasi Belajar dan Persepsi Keaktifan Peserta Didik pada Materi Pelajaran Organ Mata</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Efektivitas Model Pembelajaran Blended Learning Tipe Flipped Classroom pada Mata Pelajaran Dasar Desain Grafis di SMK Amaliah Bogor</t>
+          <t>Efektivitas Penggunaan Media Pembelajaran Berbasis Android Aritmatika Digital dalam Model Discovery Based Learning terhadap Prestasi Belajar Sistem Komputer Kelas X Multimedia SMKN 6 SurakartaK3513061</t>
         </is>
       </c>
     </row>
@@ -2683,73 +2683,73 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pengaruh  Project-Based Blended Learning terhadap Hasil Belajar Siswa pada Mata Pelajaran Dasar Desain Grafis</t>
+          <t>Pengaruh Model Pembelajaran Problem Based Learning Dipadu Group Investigation Terhadap Hasil Belajar dan Keaktifan pada Mata Pelajaran Komputer dan Jaringan Dasar Siswa Kelas X di SMK N 5 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Penerapan Institutional Theory untuk Menilai Tingkat Penerimaan Dosen Terhadap Penggunaan Sistem Pembelajaran Daring (SPADA) di Lingkungan JPTK FKIP UNS</t>
+          <t>Penerapan Project Based Learning untuk Meningkatkan Aktivitas dan Kompetensi Instalasi Sistem Operasi Berbasis GUI dan CLI pada Siswa Kelas X TKJ di SMK N 1 Sawit</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pengaruh Penggunaan Model SAMR (Subtitution, Augmentation, Modification and Redefinition) terhadap Kemampuan Berpikir Kritis Siswa pada Mata Pelajaran Pemrograman Dasar Kelas X Multimedia SMK Batik 2 Surakarta</t>
+          <t>Pengaruh Model Pembelajaran Blended Learning Tipe Flex Berbantuan Google Classroom Terhadap Tingkat Self Regulated Learning Siswa</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Efektivitas Penggunaan Media Pembelajaran Augmented Reality dalam Meningkatkan Kemampuan Berpikir Kritis Mata Kuliah Teknik Animasi 3 Dimensi Mahasiswa Program Studi Ptik FKIP UNS</t>
+          <t>Penerapan Model Pembelajaran Online Project Based Learning dengan Perpaduan Collaborative Learning untuk Meningkatkan Hasil Belajar Komposisi Foto Digital pada Siswa Multimedia SMK Negeri Takeran</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pengembangan media pembelajaran berbasis Augmented Reality pada mata kuliah animasi 3d program studi pendidikan teknik informatika dan komputer  Universitas Sebelas Maret</t>
+          <t>Perbandingan Model Blended Learning Menggunakan Strategi Think, Pair, Share Berbantuan Google Classroom dengan Traditional Learning terhadap Motivasi Belajar dan Hasil Belajar Siswa pada Mata Pelajaran Produktif Kelas XII TKJ di SMK Mabdaul Ma’arif Jember</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pengaruh Model Inquiry Based Learning Berbantu Media Augmented Reality terhadap Kemampuan Berpikir Kritis Siswa Mata Pelajaran Animasi 3D di Smk Batik 2 Surakarta</t>
+          <t>Evaluasi Penerapan Technological Pedagogical Content Knowledge (TPACK)   pada Model Blended Learning  Berdasarkan Persepsi Siswa</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ANALISIS KEMAMPUAN BERPIKIR KRITIS UNTUK KETERAMPILAN MENGONFIGURASI KONTROL PANEL HOSTING MENGGUNAKAN MEDIA VPS</t>
+          <t>PENGEMBANGAN KEMAMPUAN BERPIKIR KOMPUTASI MELALUI KOMBINASI GAME-PLAY (BERMAIN GAME) DAN GAME-DESIGN(MENDESAIN GAME)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2759,61 +2759,61 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Efektivitas Model Pembelajaran Guided Inquiry Ditinjau dari Kemampuan Berpikir Kritis Siswa pada Mata Pelajaran Simulasi dan Komunikasi Digital di SMK Negeri 2 Surakarta</t>
+          <t>Penerapan Institutional Theory untuk Menilai Tingkat Penerimaan Dosen Terhadap Penggunaan Sistem Pembelajaran Daring (SPADA) di Lingkungan JPTK FKIP UNS</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pengaruh Kombinasi Model Pembelajaran Flipped Classroom dan Mind Mapping untuk Meningkatkan Kemampuan Berpikir Kritis Siswa</t>
+          <t>Efektivitas Penggunaan Blended Learning Tipe Flipped Classroom Ditinjau dari Hasil Belajar Siswa pada Mata Pelajaran Simulasi Digital di SMK Negeri 3 Surakarta</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efektifitas Penggunaan Pembelajaran Daring dengan LMS Google Classroom dalam Meningkatkan Kemampuan Berpikir Kritis </t>
+          <t>Pengaruh penerapan model pembelajaran blended learning  tipe face to face driver model terhadap minat dan hasil belajar mata pelajaran simulasi digital siswa SMK Sakti Gemolong</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Scoping Review Penggunaan Augmented Reality sebagai Media Pembelajaran dalam Meningkatkan Motivasi Siswa</t>
+          <t>Pengaruh  Project-Based Blended Learning terhadap Hasil Belajar Siswa pada Mata Pelajaran Dasar Desain Grafis</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PENGEMBANGAN KEMAMPUAN BERPIKIR KOMPUTASI MELALUI KOMBINASI GAME-PLAY (BERMAIN GAME) DAN GAME-DESIGN(MENDESAIN GAME)</t>
+          <t xml:space="preserve">Implementasi Model Pembelajaran Team Assisted Individualization (TAI) Secara Blended Learning Menggunakan Schoology Ditinjau dari Hasil Belajar Siswa </t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Analisis Pelaksanaan Pembelajaran Menggunakan Robomind Melalui Pendekatan Problem-Based Learning pada Mata Kuliah Pemrograman Dasar di PTIK UNS</t>
+          <t>Efektivitas Model Pembelajaran Blended Learning Tipe Flipped Classroom pada Mata Pelajaran Dasar Desain Grafis di SMK Amaliah Bogor</t>
         </is>
       </c>
     </row>
